--- a/WIP/Users/HuyenPT/UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Edit profie</t>
-  </si>
-  <si>
     <t>Chỉnh sửa thông tin cá nhân</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Edit group profile</t>
   </si>
   <si>
-    <t>Chỉnh sửa thông tin về nhóm</t>
-  </si>
-  <si>
     <t>UC022</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>UC029</t>
   </si>
   <si>
-    <t>chat nhóm?</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -627,9 +618,6 @@
     <t>Suggest book/author</t>
   </si>
   <si>
-    <t>Send warning mail to reported user</t>
-  </si>
-  <si>
     <t>UC054</t>
   </si>
   <si>
@@ -640,6 +628,33 @@
   </si>
   <si>
     <t>Giới thiệu sách/tác giả cho người dùng: Dựa trên danh sách những sách họ bình chọn, tác giả đang theo dõi</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin về nhóm: Tên, ảnh, …</t>
+  </si>
+  <si>
+    <t>Send warning mail to reported user/admin of reported group</t>
+  </si>
+  <si>
+    <t>Edit profile</t>
+  </si>
+  <si>
+    <t>Change avatar/cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change personal information </t>
+  </si>
+  <si>
+    <t>Chỉnh sửa ảnh đại diện/ ảnh bìa</t>
+  </si>
+  <si>
+    <t>UC056</t>
+  </si>
+  <si>
+    <t>UC057</t>
+  </si>
+  <si>
+    <t>UC058</t>
   </si>
 </sst>
 </file>
@@ -848,17 +863,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,27 +919,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,21 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,904 +1232,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I79"/>
+  <dimension ref="C5:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="3:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C42" s="20"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
+    <row r="52" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" s="4" t="s">
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="18"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F43" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F44" s="18"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F47" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F48" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26"/>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F54" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F56" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F57" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F60" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="11" t="s">
+      <c r="E60" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="32"/>
+      <c r="E67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C69" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C72" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C73" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I60" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F61" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="11" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F62" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F64" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F71" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F72" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F74" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="I74" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F75" s="12" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C75" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="14" t="s">
+      <c r="F75" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C77" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I75" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F76" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" s="37"/>
-      <c r="H76" s="14" t="s">
+      <c r="F77" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I76" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="77" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F77" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>207</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="G56:G61"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="F34:I34"/>
+  <mergeCells count="29">
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -75,6 +75,9 @@
     <t>Register</t>
   </si>
   <si>
+    <t>Edit profie</t>
+  </si>
+  <si>
     <t>Chỉnh sửa thông tin cá nhân</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
     <t>Edit group profile</t>
   </si>
   <si>
+    <t>Chỉnh sửa thông tin về nhóm</t>
+  </si>
+  <si>
     <t>UC022</t>
   </si>
   <si>
@@ -588,9 +594,6 @@
     <t>UC053</t>
   </si>
   <si>
-    <t>Statistic number of users/authors/group</t>
-  </si>
-  <si>
     <t>Statistic access times</t>
   </si>
   <si>
@@ -618,6 +621,9 @@
     <t>Suggest book/author</t>
   </si>
   <si>
+    <t>Send warning mail to reported user</t>
+  </si>
+  <si>
     <t>UC054</t>
   </si>
   <si>
@@ -630,31 +636,7 @@
     <t>Giới thiệu sách/tác giả cho người dùng: Dựa trên danh sách những sách họ bình chọn, tác giả đang theo dõi</t>
   </si>
   <si>
-    <t>Chỉnh sửa thông tin về nhóm: Tên, ảnh, …</t>
-  </si>
-  <si>
-    <t>Send warning mail to reported user/admin of reported group</t>
-  </si>
-  <si>
-    <t>Edit profile</t>
-  </si>
-  <si>
-    <t>Change avatar/cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change personal information </t>
-  </si>
-  <si>
-    <t>Chỉnh sửa ảnh đại diện/ ảnh bìa</t>
-  </si>
-  <si>
-    <t>UC056</t>
-  </si>
-  <si>
-    <t>UC057</t>
-  </si>
-  <si>
-    <t>UC058</t>
+    <t>Statistic number of readers/authors/group</t>
   </si>
 </sst>
 </file>
@@ -865,21 +847,63 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -888,48 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,914 +1214,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F77"/>
+  <dimension ref="F6:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="6:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="4" t="s">
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="4" t="s">
+    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="19"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F42" s="19"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    </row>
+    <row r="58" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F59" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F62" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F68" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F69" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F70" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F71" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F72" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F73" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F74" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F75" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H75" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C42" s="20"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="I75" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F76" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C72" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="12" t="s">
+    <row r="77" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F77" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C74" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="14" t="s">
+      <c r="I77" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C75" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>203</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D14:D15"/>
+  <mergeCells count="28">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -637,6 +637,21 @@
   </si>
   <si>
     <t>Statistic number of readers/authors/group</t>
+  </si>
+  <si>
+    <t>Request add book</t>
+  </si>
+  <si>
+    <t>Gửi yêu cầu thêm sách</t>
+  </si>
+  <si>
+    <t>UC056</t>
+  </si>
+  <si>
+    <t>UC057</t>
+  </si>
+  <si>
+    <t>UC058</t>
   </si>
 </sst>
 </file>
@@ -847,18 +862,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,27 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,18 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:I77"/>
+  <dimension ref="F6:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1242,20 +1257,20 @@
       </c>
     </row>
     <row r="7" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F9" s="18" t="s">
@@ -1272,8 +1287,8 @@
       </c>
     </row>
     <row r="10" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1282,8 +1297,8 @@
       </c>
     </row>
     <row r="11" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1318,8 +1333,8 @@
       </c>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="4" t="s">
         <v>136</v>
       </c>
@@ -1352,12 +1367,12 @@
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="6:9" ht="45" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
@@ -1377,7 +1392,7 @@
       <c r="F19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1386,8 +1401,8 @@
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="19"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1399,7 +1414,7 @@
       <c r="F21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1411,7 +1426,7 @@
       <c r="F22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1423,7 +1438,7 @@
       <c r="F23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1449,7 +1464,7 @@
       <c r="F25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="4" t="s">
         <v>45</v>
       </c>
@@ -1461,7 +1476,7 @@
       <c r="F26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="4" t="s">
         <v>46</v>
       </c>
@@ -1471,9 +1486,9 @@
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="G27" s="20"/>
       <c r="H27" s="4" t="s">
         <v>37</v>
       </c>
@@ -1483,9 +1498,9 @@
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -1497,9 +1512,9 @@
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="G29" s="34"/>
       <c r="H29" s="4" t="s">
         <v>47</v>
       </c>
@@ -1509,9 +1524,9 @@
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="G30" s="34"/>
       <c r="H30" s="4" t="s">
         <v>48</v>
       </c>
@@ -1521,9 +1536,9 @@
     </row>
     <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="G31" s="28"/>
       <c r="H31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1532,16 +1547,16 @@
       </c>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="4" t="s">
@@ -1553,7 +1568,7 @@
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F34" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>119</v>
@@ -1566,8 +1581,8 @@
       </c>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="4" t="s">
         <v>121</v>
       </c>
@@ -1577,7 +1592,7 @@
     </row>
     <row r="36" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F36" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="6" t="s">
@@ -1589,7 +1604,7 @@
     </row>
     <row r="37" spans="6:9" ht="60" x14ac:dyDescent="0.25">
       <c r="F37" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="4" t="s">
@@ -1601,7 +1616,7 @@
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="4" t="s">
@@ -1612,16 +1627,16 @@
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="6:9" ht="45" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="s">
@@ -1633,9 +1648,9 @@
     </row>
     <row r="41" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F41" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -1646,8 +1661,8 @@
       </c>
     </row>
     <row r="42" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F42" s="19"/>
-      <c r="G42" s="29"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="6" t="s">
         <v>80</v>
       </c>
@@ -1657,9 +1672,9 @@
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>124</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -1671,9 +1686,9 @@
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="G44" s="28"/>
       <c r="H44" s="4" t="s">
         <v>86</v>
       </c>
@@ -1683,7 +1698,7 @@
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F45" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="4" t="s">
@@ -1695,7 +1710,7 @@
     </row>
     <row r="46" spans="6:9" ht="60" x14ac:dyDescent="0.25">
       <c r="F46" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="4" t="s">
@@ -1707,7 +1722,7 @@
     </row>
     <row r="47" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F47" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>94</v>
@@ -1721,9 +1736,9 @@
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="G48" s="19"/>
       <c r="H48" s="4" t="s">
         <v>95</v>
       </c>
@@ -1733,9 +1748,9 @@
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="G49" s="20"/>
       <c r="H49" s="4" t="s">
         <v>96</v>
       </c>
@@ -1744,16 +1759,16 @@
       </c>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="27"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="4" t="s">
@@ -1765,7 +1780,7 @@
     </row>
     <row r="52" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F52" s="5" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="6" t="s">
@@ -1776,330 +1791,330 @@
       </c>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F54" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I54" s="10"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="21"/>
+        <v>155</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>128</v>
+      </c>
       <c r="H55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="G56" s="32"/>
       <c r="H56" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F57" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="G57" s="32"/>
       <c r="H57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I58" s="10" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F59" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="22"/>
+        <v>159</v>
+      </c>
+      <c r="G59" s="32"/>
       <c r="H59" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F60" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="21"/>
+        <v>161</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="H61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="32"/>
+      <c r="H62" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F62" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="11" t="s">
+    <row r="63" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I63" s="10" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F64" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="H64" s="10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="22"/>
+        <v>177</v>
+      </c>
+      <c r="G65" s="32"/>
       <c r="H65" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>167</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G66" s="33"/>
       <c r="H66" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="H67" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F68" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G68" s="22"/>
+        <v>180</v>
+      </c>
+      <c r="G68" s="32"/>
       <c r="H68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I69" s="10" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F69" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="70" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F70" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G70" s="22"/>
+        <v>189</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="H70" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F71" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I71" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71" s="23" t="s">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F72" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-    </row>
-    <row r="72" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F72" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F73" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F74" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G74" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="G74" s="13"/>
       <c r="H74" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="6:9" ht="30" x14ac:dyDescent="0.25">
       <c r="F75" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G75" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F76" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H76" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I76" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="13" t="s">
+    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F77" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I77" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F77" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13" t="s">
+    <row r="78" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F78" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I78" s="14" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G76:G77"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="G55:G60"/>
     <mergeCell ref="G47:G49"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="G34:G35"/>
@@ -2107,6 +2122,18 @@
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
